--- a/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0351A9-7358-4E7D-9CD3-DDAE7F1444F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11808E75-4EA8-4FC9-BD7B-33552C1B45EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{607CDFC7-542C-41EE-883E-9E381CF8364C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Ngày</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Đã trả</t>
-  </si>
-  <si>
     <t>ĐL anh Tuấn NB</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>ĐL Hay Huế</t>
+  </si>
+  <si>
+    <t>ĐL GPS Global</t>
+  </si>
+  <si>
+    <t>Đã trả (05/01/25)</t>
+  </si>
+  <si>
+    <t>Đã trả (06/01/25)</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -139,6 +145,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +477,7 @@
     <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +493,9 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45662</v>
       </c>
@@ -497,47 +507,132 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>32</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45663</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>6</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11808E75-4EA8-4FC9-BD7B-33552C1B45EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9D9D9-EC64-462D-B0D7-602026EC2E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{607CDFC7-542C-41EE-883E-9E381CF8364C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Ngày</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Đã trả (06/01/25)</t>
+  </si>
+  <si>
+    <t>ĐL anh Ân Thái Bình</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,11 +126,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -141,14 +170,23 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +505,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +513,7 @@
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -493,10 +532,10 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>45662</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -511,7 +550,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -524,7 +563,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -537,7 +576,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -550,7 +589,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>45663</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -565,11 +604,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -635,8 +680,9 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9D9D9-EC64-462D-B0D7-602026EC2E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D172ECAC-D9A6-4E3F-B8EC-257559B3C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{607CDFC7-542C-41EE-883E-9E381CF8364C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 01" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tháng 01'!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -173,20 +176,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +508,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -535,7 +538,7 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>45662</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -550,7 +553,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -563,7 +566,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -576,7 +579,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>45663</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -604,7 +607,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -613,7 +616,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,6 +683,7 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>

--- a/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Thông tin xuất kho Camera.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D172ECAC-D9A6-4E3F-B8EC-257559B3C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3151AE-2A7B-400C-8E51-61E21240AB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{607CDFC7-542C-41EE-883E-9E381CF8364C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tháng 01" sheetId="1" r:id="rId1"/>
+    <sheet name="Xuất kho" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tháng 01'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Xuất kho'!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Ngày</t>
   </si>
@@ -63,13 +63,19 @@
     <t>ĐL GPS Global</t>
   </si>
   <si>
-    <t>Đã trả (05/01/25)</t>
-  </si>
-  <si>
-    <t>Đã trả (06/01/25)</t>
-  </si>
-  <si>
     <t>ĐL anh Ân Thái Bình</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Đã trả (07/01/26)</t>
+  </si>
+  <si>
+    <t>Đã trả (06/01/26)</t>
+  </si>
+  <si>
+    <t>Đã trả (05/01/26)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,7 +529,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,35 +624,49 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -684,10 +719,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:E1000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("Đã trả",$E2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>ISNUMBER(SEARCH("Chưa trả",$E2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>